--- a/RUDN/Importance/Varible_f_reg_in_Western Asia.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Western Asia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <t>F-value</t>
   </si>
@@ -22,31 +22,97 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Secondary education, teachers (% female)</t>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
     <t>Number of under-five deaths</t>
@@ -55,135 +121,225 @@
     <t>Number of infant deaths</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 0, male, interpolated</t>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
     <t>Male population 00-04</t>
   </si>
   <si>
@@ -193,772 +349,733 @@
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
+    <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 12, male, interpolated</t>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
   </si>
   <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
+    <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
     <t>Female population 10-14</t>
   </si>
   <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Female population 20-24</t>
   </si>
   <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
     <t>Population, total</t>
   </si>
   <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Female population 25-29</t>
   </si>
   <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
   </si>
   <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+    <t>Male population 35-39</t>
   </si>
   <si>
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
     <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
     <t>Male population 45-49</t>
   </si>
   <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Male population 60-64</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C314"/>
+  <dimension ref="A1:C353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1335,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>603.0133304187453</v>
+        <v>1107.796966911217</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1346,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>602.0528384970834</v>
+        <v>880.3016963807979</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1357,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>602.0528384970834</v>
+        <v>867.5305040896092</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1368,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>577.7015657412569</v>
+        <v>581.7962041820509</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1379,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>194.4404249866448</v>
+        <v>579.6651863707305</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1390,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>166.5711351112178</v>
+        <v>579.6651863707305</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1401,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>130.6374346636996</v>
+        <v>555.6819859118343</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1412,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>117.663062691548</v>
+        <v>432.1745447030997</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1423,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>117.081068182925</v>
+        <v>375.2273752097262</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1434,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>110.7294367769137</v>
+        <v>309.5471812951861</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1445,7 +1562,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>110.5003791186226</v>
+        <v>268.5213501720184</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1456,7 +1573,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>109.1418775612074</v>
+        <v>240.0131388141058</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1467,7 +1584,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>104.5279061271647</v>
+        <v>201.6299148448458</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1478,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>103.5947380487062</v>
+        <v>199.6454542644161</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1489,7 +1606,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>103.5947380486996</v>
+        <v>184.5890058317232</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1500,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>102.4071919031584</v>
+        <v>174.0472435829316</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1511,7 +1628,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>96.70810201861491</v>
+        <v>174.0472435829316</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1522,7 +1639,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>95.58153218389356</v>
+        <v>173.8781503537413</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1533,7 +1650,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>95.20633835595795</v>
+        <v>154.5018240650178</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1544,7 +1661,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>94.84665503116771</v>
+        <v>137.2189801649986</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1555,7 +1672,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>86.52014640216973</v>
+        <v>137.124543033674</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1566,7 +1683,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>85.74047403409949</v>
+        <v>136.5508769265742</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1577,7 +1694,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>82.63639519152009</v>
+        <v>126.7685175334274</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1588,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>82.37304420522824</v>
+        <v>119.3150630542456</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1599,7 +1716,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>78.85023605338269</v>
+        <v>111.6166245656893</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1610,7 +1727,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>77.55294751675009</v>
+        <v>110.1010779694049</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1621,7 +1738,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>75.94021997536295</v>
+        <v>106.8138142590253</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1632,7 +1749,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>74.15070407870687</v>
+        <v>106.7550274393607</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1643,7 +1760,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>74.1484750666922</v>
+        <v>106.5860349250895</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1654,7 +1771,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>72.67436668309027</v>
+        <v>106.533807608552</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1665,7 +1782,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>72.49424834680583</v>
+        <v>105.7095801774538</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1676,7 +1793,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>72.49424834680583</v>
+        <v>103.0274251976194</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1687,7 +1804,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>72.33530212652026</v>
+        <v>102.8597589268845</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1698,7 +1815,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>67.86211569546312</v>
+        <v>102.0656955580183</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1709,7 +1826,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>65.4839314005246</v>
+        <v>95.55870891681569</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1720,7 +1837,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>65.4839314005246</v>
+        <v>95.14980090434682</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1731,7 +1848,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>63.92345620732518</v>
+        <v>95.14980090434493</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1742,7 +1859,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>59.93680067058657</v>
+        <v>88.91092105180529</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1753,7 +1870,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>59.91582562301151</v>
+        <v>88.46016214921713</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1764,7 +1881,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>59.81216496917915</v>
+        <v>87.38672300268428</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1775,7 +1892,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>59.79100284143969</v>
+        <v>87.14505990810173</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1786,7 +1903,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>56.73004086730356</v>
+        <v>87.10359864413405</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1797,7 +1914,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>55.71702612018528</v>
+        <v>86.6530489894955</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1808,7 +1925,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>55.33013887038646</v>
+        <v>85.82639969300146</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1819,7 +1936,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>55.13185444232634</v>
+        <v>82.05513678736074</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1830,7 +1947,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>54.39834935717246</v>
+        <v>78.93549926955041</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1841,7 +1958,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>53.41474521352199</v>
+        <v>77.67347781351077</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1852,7 +1969,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>52.61793386481324</v>
+        <v>77.30961581899186</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1863,7 +1980,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>52.01770111083659</v>
+        <v>76.15951951987245</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1874,7 +1991,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>51.79434224033466</v>
+        <v>75.66636131627374</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1885,7 +2002,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>51.58806421654387</v>
+        <v>75.07226180242318</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1896,7 +2013,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>50.90121239271061</v>
+        <v>73.96837243787283</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1907,7 +2024,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>50.65954730809574</v>
+        <v>73.87019176025493</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1918,7 +2035,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>50.65954730809574</v>
+        <v>70.62514169854538</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1929,7 +2046,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>50.3161881603786</v>
+        <v>70.12397720086025</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1940,7 +2057,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>50.11257932782729</v>
+        <v>70.12356650442179</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1951,7 +2068,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>49.8040726981922</v>
+        <v>70.11863549893201</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1962,7 +2079,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>48.93146177793728</v>
+        <v>70.11863549893201</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1973,7 +2090,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>48.89523446938315</v>
+        <v>69.495258314471</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1984,7 +2101,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>48.72872043004158</v>
+        <v>69.495258314471</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1995,7 +2112,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>48.40184158469791</v>
+        <v>68.71516452064513</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2006,7 +2123,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>48.16649783573423</v>
+        <v>67.57818560056398</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2017,7 +2134,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>47.78629988919707</v>
+        <v>67.01651053577672</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2028,7 +2145,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>47.68732618220663</v>
+        <v>66.60783424919272</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2039,7 +2156,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>47.66550222207719</v>
+        <v>65.67724897401749</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2050,7 +2167,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>47.24429964616242</v>
+        <v>64.99446725125739</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2061,7 +2178,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>47.17326966958996</v>
+        <v>64.99446725125739</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2072,7 +2189,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>46.77776403386146</v>
+        <v>64.64715291807116</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2083,7 +2200,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>46.76205718166929</v>
+        <v>63.39910598140854</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2094,7 +2211,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>46.74756134414467</v>
+        <v>62.69750514508173</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2105,7 +2222,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>46.70913689432006</v>
+        <v>61.25679296314439</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2116,7 +2233,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>46.57691856293316</v>
+        <v>61.25237874218391</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2127,7 +2244,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>46.11928150171199</v>
+        <v>59.75831272346545</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2138,7 +2255,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>46.05625955828198</v>
+        <v>59.67279415048027</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2149,7 +2266,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>45.88855938937838</v>
+        <v>59.46791296680274</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2160,7 +2277,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>45.69604203318286</v>
+        <v>59.20858367329259</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2171,7 +2288,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>45.35179088266164</v>
+        <v>58.74623522563436</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2182,7 +2299,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>45.1741014440689</v>
+        <v>58.46561819030467</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2193,7 +2310,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>45.09119949646932</v>
+        <v>58.24214659979785</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2204,7 +2321,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>44.9276798432472</v>
+        <v>58.23062337701693</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2215,7 +2332,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>44.79759173449759</v>
+        <v>57.62710995706255</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2226,7 +2343,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>44.35142534114306</v>
+        <v>57.53170767791516</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2237,7 +2354,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>44.26690163812829</v>
+        <v>57.40203117107292</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2248,7 +2365,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>43.99278106162021</v>
+        <v>57.37714195612998</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2259,7 +2376,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>43.66736870865426</v>
+        <v>57.00191217182375</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2270,7 +2387,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>43.52160553670165</v>
+        <v>56.78852672334459</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2281,7 +2398,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>43.500752443435</v>
+        <v>55.24933658460601</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2292,7 +2409,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>43.25876363649007</v>
+        <v>55.1735090775045</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2303,7 +2420,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>43.03283372699821</v>
+        <v>55.1735090775045</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2314,7 +2431,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>42.58821740824432</v>
+        <v>54.52435676275958</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2325,7 +2442,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>42.44156865023166</v>
+        <v>54.3095899272069</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2336,7 +2453,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>41.97586146708174</v>
+        <v>53.73068714123613</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2347,7 +2464,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>41.88259056361767</v>
+        <v>53.67304657988267</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2358,7 +2475,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>41.8813833897141</v>
+        <v>52.01647940836593</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2369,7 +2486,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>41.85775494814362</v>
+        <v>51.25021281912919</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2380,7 +2497,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>41.43913209781211</v>
+        <v>50.76226778612115</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2391,7 +2508,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>41.43901638481548</v>
+        <v>50.76226778612115</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2402,7 +2519,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>41.40867773843672</v>
+        <v>50.40630566456238</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2413,7 +2530,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>41.30180620395554</v>
+        <v>50.05427496437136</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2424,7 +2541,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>40.99146073318288</v>
+        <v>49.96006284321822</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2435,7 +2552,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>40.86154778497465</v>
+        <v>49.94972224043066</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2446,7 +2563,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>40.60007882293262</v>
+        <v>49.78425898360932</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2457,7 +2574,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>40.31881533890143</v>
+        <v>49.03188041047962</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2468,7 +2585,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>40.30592127274792</v>
+        <v>48.77990413104364</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2479,7 +2596,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>39.94233536627607</v>
+        <v>48.62447577783072</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2490,7 +2607,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>39.7529617086184</v>
+        <v>47.84210291133751</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2501,7 +2618,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>39.69041300145854</v>
+        <v>47.29483079857639</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2512,7 +2629,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>39.56276392471537</v>
+        <v>47.17942444273166</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2523,7 +2640,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>39.56276392471537</v>
+        <v>46.69180969214958</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2534,7 +2651,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>39.40285223592739</v>
+        <v>46.228037289452</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2545,7 +2662,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>39.10684345357125</v>
+        <v>45.9438863694996</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2556,7 +2673,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>39.10488444192643</v>
+        <v>45.58924755953156</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2567,7 +2684,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>38.52361737870935</v>
+        <v>45.45084954968867</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2578,7 +2695,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>38.31765495199303</v>
+        <v>45.29011604661975</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2589,7 +2706,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>38.03926909516883</v>
+        <v>45.16387601543606</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2600,7 +2717,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>37.69106250466697</v>
+        <v>44.76127996548943</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2611,7 +2728,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>37.36912606493144</v>
+        <v>44.58051026158019</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2622,7 +2739,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>37.28168919040866</v>
+        <v>44.54460098222044</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2633,7 +2750,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>37.2080269395769</v>
+        <v>44.39414948632857</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2644,7 +2761,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>37.07684454213938</v>
+        <v>44.07780132553199</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2655,7 +2772,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>36.97788975733495</v>
+        <v>43.66950933967659</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2666,7 +2783,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>36.96531579506025</v>
+        <v>43.6212834770019</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2677,7 +2794,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>36.69755753198834</v>
+        <v>43.26082052019058</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2688,7 +2805,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>36.67187888936211</v>
+        <v>43.14149822095629</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2699,7 +2816,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>36.61308561216399</v>
+        <v>42.88014708630555</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2710,7 +2827,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>36.60518371306424</v>
+        <v>42.79536073333644</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2721,7 +2838,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>36.56015341376872</v>
+        <v>42.71261545709638</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2732,7 +2849,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>36.3979384961153</v>
+        <v>42.66278799966324</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2743,7 +2860,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>36.26916291663497</v>
+        <v>42.60922920269689</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2754,7 +2871,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>36.07763356928102</v>
+        <v>42.31800785761068</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2765,7 +2882,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>35.35533913760382</v>
+        <v>42.30843696392089</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2776,7 +2893,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>35.25964621272943</v>
+        <v>42.08113047966043</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2787,7 +2904,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>35.02501796626458</v>
+        <v>42.05046619661562</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2798,7 +2915,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>33.67283494642479</v>
+        <v>41.78692278922393</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2809,7 +2926,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>33.57306971176924</v>
+        <v>41.45227993431521</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2820,7 +2937,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>33.57306971176924</v>
+        <v>41.38322304294935</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2831,7 +2948,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>33.41346737858625</v>
+        <v>41.01778038000336</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2842,7 +2959,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>32.62769324562426</v>
+        <v>40.93496366842938</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2853,7 +2970,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>32.40972035665938</v>
+        <v>40.78835849482996</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2864,7 +2981,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>32.2685088457021</v>
+        <v>40.58302675011559</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2875,7 +2992,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>32.25712360777079</v>
+        <v>40.33879360981199</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2886,7 +3003,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>31.88303053548747</v>
+        <v>40.25796656278524</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2897,7 +3014,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>31.8695871310742</v>
+        <v>40.13518640547062</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2908,7 +3025,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>31.62574612213493</v>
+        <v>39.78968388918952</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2919,7 +3036,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>31.62574612213493</v>
+        <v>39.7447173415698</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2930,7 +3047,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>31.31921646294439</v>
+        <v>39.3467917254163</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2941,7 +3058,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>31.06394076480705</v>
+        <v>39.25902164259854</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2952,7 +3069,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>30.85716325036249</v>
+        <v>39.22480254695807</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2963,7 +3080,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>30.84396139310845</v>
+        <v>38.86021549195945</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2974,7 +3091,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>30.36724805002541</v>
+        <v>38.75818519731278</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2985,7 +3102,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>30.12078891310981</v>
+        <v>38.32092411441838</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2996,7 +3113,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>30.07581467947317</v>
+        <v>38.2392172264165</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3007,7 +3124,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>29.54950838782401</v>
+        <v>38.00022126112641</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3018,7 +3135,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>29.46066539823897</v>
+        <v>37.88321913056226</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3029,7 +3146,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>29.10367513529361</v>
+        <v>37.79425189626466</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3040,7 +3157,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>28.73761223927774</v>
+        <v>37.41757537484257</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3051,7 +3168,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>28.54520668533782</v>
+        <v>37.4086288469318</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3062,7 +3179,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>28.5424917651521</v>
+        <v>36.85508718917331</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3073,7 +3190,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>28.44263646031254</v>
+        <v>36.84277998599298</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3084,7 +3201,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>28.28302224981124</v>
+        <v>36.8423518133098</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3095,7 +3212,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>28.10667207054711</v>
+        <v>36.77830727801687</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3106,7 +3223,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>28.04335810130099</v>
+        <v>36.56059912796872</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3117,7 +3234,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>27.90327413885464</v>
+        <v>36.5270944805503</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3128,7 +3245,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>27.79605930870448</v>
+        <v>36.33761161855919</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3139,7 +3256,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>27.51527775718972</v>
+        <v>36.14105538304951</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3150,7 +3267,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>27.05942134113116</v>
+        <v>36.08213796950656</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3161,7 +3278,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>26.81990454893851</v>
+        <v>36.08213796950656</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3172,7 +3289,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>26.80157806099535</v>
+        <v>35.54522150325153</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3183,7 +3300,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>26.63211922152115</v>
+        <v>35.43267702685436</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3194,7 +3311,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>26.50929620809684</v>
+        <v>35.28026062881653</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3205,7 +3322,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>25.03749351531367</v>
+        <v>34.98775233548465</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3216,7 +3333,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>25.01341545115753</v>
+        <v>34.64198978760273</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3227,7 +3344,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>24.97183847733879</v>
+        <v>34.60687092678272</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3238,7 +3355,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>24.74255348905477</v>
+        <v>34.26176874610684</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3249,7 +3366,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>24.72090712245764</v>
+        <v>33.93429137430154</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3260,7 +3377,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>24.64232790924185</v>
+        <v>33.80868419836178</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3271,7 +3388,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>24.62878425349472</v>
+        <v>33.38443950498976</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3282,7 +3399,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>24.62273352306077</v>
+        <v>33.28040432689427</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3293,7 +3410,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>24.62260588589121</v>
+        <v>33.24453747533916</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3304,7 +3421,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>24.62017863626864</v>
+        <v>33.20946224182676</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3315,7 +3432,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>24.61928836292717</v>
+        <v>33.09291375948145</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3326,7 +3443,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>24.61713204155203</v>
+        <v>32.94303648538251</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3337,7 +3454,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>24.61558064317324</v>
+        <v>32.80735812874524</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3348,7 +3465,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>24.51774637081175</v>
+        <v>32.72625137071667</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3359,7 +3476,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>24.50522759945725</v>
+        <v>32.59318179609433</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3370,7 +3487,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>24.18394172850797</v>
+        <v>32.51042386275719</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3381,7 +3498,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>24.16296077431457</v>
+        <v>32.15591411855488</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3392,7 +3509,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>23.99593010616194</v>
+        <v>32.11062646277735</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3403,7 +3520,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>23.83548645251283</v>
+        <v>32.01420605733115</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3414,7 +3531,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>23.8203055276394</v>
+        <v>31.90329544344414</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3425,7 +3542,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>23.7352451210757</v>
+        <v>31.84650896197753</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3436,7 +3553,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>23.49340630186156</v>
+        <v>31.8378297548616</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3447,7 +3564,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>23.37977603680911</v>
+        <v>31.81661790292256</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3458,7 +3575,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>23.37662679547556</v>
+        <v>31.78917007825087</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3469,7 +3586,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>22.970142205233</v>
+        <v>31.77122669178495</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3480,7 +3597,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>22.46959639404141</v>
+        <v>31.7144116037654</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3491,7 +3608,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>22.33294451082831</v>
+        <v>31.58006026536818</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3502,7 +3619,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>22.2485972278814</v>
+        <v>31.5689827974245</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3513,7 +3630,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>22.24859722787761</v>
+        <v>31.15106080020073</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3524,7 +3641,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>22.06760547710477</v>
+        <v>31.12232387732119</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3535,7 +3652,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>21.93112172727011</v>
+        <v>30.8645706733907</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3546,10 +3663,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>21.5567073437474</v>
+        <v>30.73006496412783</v>
       </c>
       <c r="C203">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3557,10 +3674,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>21.41359256446546</v>
+        <v>30.49115259321263</v>
       </c>
       <c r="C204">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3568,10 +3685,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>21.40856157371234</v>
+        <v>30.32578120007609</v>
       </c>
       <c r="C205">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3579,10 +3696,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>21.33439287762095</v>
+        <v>29.99751568854824</v>
       </c>
       <c r="C206">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3590,10 +3707,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>21.28955151022943</v>
+        <v>29.97980937514571</v>
       </c>
       <c r="C207">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3601,10 +3718,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>21.22053736155164</v>
+        <v>29.97249991029328</v>
       </c>
       <c r="C208">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3612,10 +3729,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>20.99317350287724</v>
+        <v>29.97219307303615</v>
       </c>
       <c r="C209">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3623,10 +3740,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>20.9700308548001</v>
+        <v>29.9686215094351</v>
       </c>
       <c r="C210">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3634,10 +3751,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>20.96577860879063</v>
+        <v>29.96794419942928</v>
       </c>
       <c r="C211">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3645,10 +3762,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>20.94002147330571</v>
+        <v>29.96505202221674</v>
       </c>
       <c r="C212">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3656,10 +3773,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>20.91017733324206</v>
+        <v>29.96423642359613</v>
       </c>
       <c r="C213">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3667,10 +3784,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>20.90750353992182</v>
+        <v>29.61731555372185</v>
       </c>
       <c r="C214">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3678,10 +3795,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>20.86134453548312</v>
+        <v>29.55514204447752</v>
       </c>
       <c r="C215">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3689,10 +3806,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>20.78793995452457</v>
+        <v>29.5081887224673</v>
       </c>
       <c r="C216">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3700,10 +3817,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>20.69534827969022</v>
+        <v>29.5081887224673</v>
       </c>
       <c r="C217">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3711,10 +3828,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>20.68574031885093</v>
+        <v>29.4443764732933</v>
       </c>
       <c r="C218">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3722,10 +3839,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>20.55078524662092</v>
+        <v>29.16086201482157</v>
       </c>
       <c r="C219">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3733,10 +3850,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>20.50695706935345</v>
+        <v>29.11454942400114</v>
       </c>
       <c r="C220">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3744,10 +3861,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>20.3912748902332</v>
+        <v>28.69856691012081</v>
       </c>
       <c r="C221">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3755,10 +3872,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>20.37670098645991</v>
+        <v>27.852643232129</v>
       </c>
       <c r="C222">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3766,10 +3883,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>20.31242415050721</v>
+        <v>27.84450382787104</v>
       </c>
       <c r="C223">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3777,10 +3894,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>20.21925317180082</v>
+        <v>27.56212816165743</v>
       </c>
       <c r="C224">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3788,10 +3905,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>20.21925317180082</v>
+        <v>27.52359301723821</v>
       </c>
       <c r="C225">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3799,10 +3916,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>20.1615788411376</v>
+        <v>27.07654049815867</v>
       </c>
       <c r="C226">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3810,10 +3927,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>20.10721209046367</v>
+        <v>27.00193156244581</v>
       </c>
       <c r="C227">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3821,10 +3938,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>19.81383843798189</v>
+        <v>26.87601132440285</v>
       </c>
       <c r="C228">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3832,10 +3949,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>19.12482566200423</v>
+        <v>26.85002656891551</v>
       </c>
       <c r="C229">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3843,10 +3960,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>18.89886563915754</v>
+        <v>26.65785910740629</v>
       </c>
       <c r="C230">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3854,10 +3971,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>18.71491199860771</v>
+        <v>26.59204649290036</v>
       </c>
       <c r="C231">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3865,10 +3982,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>18.62353240806184</v>
+        <v>26.23610918863641</v>
       </c>
       <c r="C232">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3876,10 +3993,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>18.52275387797772</v>
+        <v>26.11104710438271</v>
       </c>
       <c r="C233">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3887,10 +4004,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>18.12305271671499</v>
+        <v>25.8967863485978</v>
       </c>
       <c r="C234">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3898,10 +4015,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>17.73245399109284</v>
+        <v>25.40050167719825</v>
       </c>
       <c r="C235">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3909,10 +4026,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>17.5128269319745</v>
+        <v>25.36682972121399</v>
       </c>
       <c r="C236">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3920,10 +4037,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>17.30318131125921</v>
+        <v>24.99190688540501</v>
       </c>
       <c r="C237">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3931,10 +4048,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>17.21664035981993</v>
+        <v>24.99190688540501</v>
       </c>
       <c r="C238">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3942,10 +4059,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>17.13646278254374</v>
+        <v>24.71994332385623</v>
       </c>
       <c r="C239">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3953,10 +4070,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>17.06538717509437</v>
+        <v>24.66052542271479</v>
       </c>
       <c r="C240">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3964,10 +4081,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>17.06186304007077</v>
+        <v>24.60781121798112</v>
       </c>
       <c r="C241">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3975,10 +4092,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>16.82429542230048</v>
+        <v>24.424496164101</v>
       </c>
       <c r="C242">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3986,10 +4103,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>16.81840539680294</v>
+        <v>24.14302696864243</v>
       </c>
       <c r="C243">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3997,10 +4114,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>16.68348694702665</v>
+        <v>23.88745635023671</v>
       </c>
       <c r="C244">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4008,10 +4125,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>16.66671390863276</v>
+        <v>23.83905881771869</v>
       </c>
       <c r="C245">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4019,10 +4136,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>16.5180140494785</v>
+        <v>23.78705429115166</v>
       </c>
       <c r="C246">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4030,10 +4147,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>16.50197102871372</v>
+        <v>23.64113615033406</v>
       </c>
       <c r="C247">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4041,10 +4158,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>16.43133219475573</v>
+        <v>23.50032746373119</v>
       </c>
       <c r="C248">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4052,10 +4169,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>16.40727257278929</v>
+        <v>23.34148289016805</v>
       </c>
       <c r="C249">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4063,10 +4180,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>16.3995577486127</v>
+        <v>23.29753709115526</v>
       </c>
       <c r="C250">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4074,10 +4191,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>16.39099550177901</v>
+        <v>23.24711559003395</v>
       </c>
       <c r="C251">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4085,10 +4202,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>16.38313207575202</v>
+        <v>23.16574438651926</v>
       </c>
       <c r="C252">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4096,10 +4213,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>16.36815729900604</v>
+        <v>22.97434566270218</v>
       </c>
       <c r="C253">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4107,10 +4224,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>16.04824530496469</v>
+        <v>22.88473168870214</v>
       </c>
       <c r="C254">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4118,10 +4235,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>15.77503486084584</v>
+        <v>22.78500667041013</v>
       </c>
       <c r="C255">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4129,10 +4246,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>15.46688237047111</v>
+        <v>22.60655069492297</v>
       </c>
       <c r="C256">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4140,10 +4257,10 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>15.45424125864175</v>
+        <v>22.56697464847768</v>
       </c>
       <c r="C257">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4151,10 +4268,10 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>15.10572804323621</v>
+        <v>22.06186841929389</v>
       </c>
       <c r="C258">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4162,10 +4279,10 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>15.10572804323621</v>
+        <v>22.06186841929389</v>
       </c>
       <c r="C259">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4173,10 +4290,10 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>14.97801654293543</v>
+        <v>21.47141876984644</v>
       </c>
       <c r="C260">
-        <v>0.00014</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4184,10 +4301,10 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>14.62175558712156</v>
+        <v>21.39349617395662</v>
       </c>
       <c r="C261">
-        <v>0.00017</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4195,10 +4312,10 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>14.47474109029735</v>
+        <v>21.27939105513587</v>
       </c>
       <c r="C262">
-        <v>0.00018</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4206,10 +4323,10 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>14.43075944087431</v>
+        <v>21.26575482880925</v>
       </c>
       <c r="C263">
-        <v>0.00019</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4217,10 +4334,10 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>14.4234282122574</v>
+        <v>21.2005521079338</v>
       </c>
       <c r="C264">
-        <v>0.00019</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4228,10 +4345,10 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>14.39479247024065</v>
+        <v>20.56603831986767</v>
       </c>
       <c r="C265">
-        <v>0.00019</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4239,10 +4356,10 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>14.3624509198041</v>
+        <v>20.56603831986617</v>
       </c>
       <c r="C266">
-        <v>0.00019</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4250,10 +4367,10 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>14.3439902883618</v>
+        <v>20.51725538806454</v>
       </c>
       <c r="C267">
-        <v>0.0002</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4261,10 +4378,10 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>14.28688950135811</v>
+        <v>20.08153748315647</v>
       </c>
       <c r="C268">
-        <v>0.0002</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4272,10 +4389,10 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>14.08924866227129</v>
+        <v>20.01919977039169</v>
       </c>
       <c r="C269">
-        <v>0.00022</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4283,10 +4400,10 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>13.74569251030023</v>
+        <v>19.96642841876785</v>
       </c>
       <c r="C270">
-        <v>0.00026</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4294,10 +4411,10 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>13.36582415763955</v>
+        <v>19.89356746197253</v>
       </c>
       <c r="C271">
-        <v>0.00032</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4305,10 +4422,10 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>12.98061871134843</v>
+        <v>19.69756013112991</v>
       </c>
       <c r="C272">
-        <v>0.00039</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4316,10 +4433,10 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>12.78115339098791</v>
+        <v>19.53947316616266</v>
       </c>
       <c r="C273">
-        <v>0.00043</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4327,10 +4444,10 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>12.75119963522909</v>
+        <v>19.39147269663824</v>
       </c>
       <c r="C274">
-        <v>0.00044</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4338,10 +4455,10 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>12.74334779928771</v>
+        <v>19.21500580376416</v>
       </c>
       <c r="C275">
-        <v>0.00044</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4349,10 +4466,10 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>12.73666557592764</v>
+        <v>19.10209169187967</v>
       </c>
       <c r="C276">
-        <v>0.00044</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4360,10 +4477,10 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>12.64211954263822</v>
+        <v>18.6062656255675</v>
       </c>
       <c r="C277">
-        <v>0.00046</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4371,10 +4488,10 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>12.61547512391877</v>
+        <v>18.44698465845846</v>
       </c>
       <c r="C278">
-        <v>0.00047</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4382,10 +4499,10 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>12.60355422312713</v>
+        <v>18.43557749374886</v>
       </c>
       <c r="C279">
-        <v>0.00047</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4393,10 +4510,10 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>12.5389783846099</v>
+        <v>18.272946892719</v>
       </c>
       <c r="C280">
-        <v>0.00049</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4404,10 +4521,10 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>12.5376959777626</v>
+        <v>17.91903730965425</v>
       </c>
       <c r="C281">
-        <v>0.00049</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4415,10 +4532,10 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>12.50713936285467</v>
+        <v>17.73849689653683</v>
       </c>
       <c r="C282">
-        <v>0.00049</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4426,10 +4543,10 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>12.31726590586839</v>
+        <v>17.67213916005622</v>
       </c>
       <c r="C283">
-        <v>0.00054</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4437,10 +4554,10 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>12.291131578049</v>
+        <v>16.83393498700052</v>
       </c>
       <c r="C284">
-        <v>0.00055</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4448,10 +4565,10 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>12.12327828690962</v>
+        <v>16.66604468478791</v>
       </c>
       <c r="C285">
-        <v>0.0005999999999999999</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4459,10 +4576,10 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>11.97664819362271</v>
+        <v>16.41257837933508</v>
       </c>
       <c r="C286">
-        <v>0.00065</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4470,10 +4587,10 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>11.92148908364977</v>
+        <v>16.38643217618608</v>
       </c>
       <c r="C287">
-        <v>0.00066</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4481,10 +4598,10 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>11.64593529878614</v>
+        <v>16.38241835659914</v>
       </c>
       <c r="C288">
-        <v>0.00076</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4492,10 +4609,10 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>11.38472413017943</v>
+        <v>16.31513077819525</v>
       </c>
       <c r="C289">
-        <v>0.00087</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4503,10 +4620,10 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>11.36620395322407</v>
+        <v>16.16305215431098</v>
       </c>
       <c r="C290">
-        <v>0.00088</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4514,10 +4631,10 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>11.35109885801661</v>
+        <v>16.08700116775436</v>
       </c>
       <c r="C291">
-        <v>0.0008899999999999999</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4525,10 +4642,10 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>10.79403050044439</v>
+        <v>16.05376232947802</v>
       </c>
       <c r="C292">
-        <v>0.00118</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4536,10 +4653,10 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>10.6800180339974</v>
+        <v>16.00785389522418</v>
       </c>
       <c r="C293">
-        <v>0.00125</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4547,10 +4664,10 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>10.52758252722112</v>
+        <v>15.92065182624569</v>
       </c>
       <c r="C294">
-        <v>0.00136</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4558,10 +4675,10 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>10.47499778026497</v>
+        <v>15.49955748207056</v>
       </c>
       <c r="C295">
-        <v>0.00139</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4569,10 +4686,10 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>10.14045325539833</v>
+        <v>14.69357777338187</v>
       </c>
       <c r="C296">
-        <v>0.00166</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4580,10 +4697,10 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>9.278664490377352</v>
+        <v>14.65664384215274</v>
       </c>
       <c r="C297">
-        <v>0.0026</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4591,10 +4708,10 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>9.171674324572294</v>
+        <v>14.52794727554668</v>
       </c>
       <c r="C298">
-        <v>0.00275</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4602,10 +4719,10 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>8.858313230832264</v>
+        <v>14.22348466125218</v>
       </c>
       <c r="C299">
-        <v>0.00324</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4613,10 +4730,10 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>8.45480082481834</v>
+        <v>14.07491655898916</v>
       </c>
       <c r="C300">
-        <v>0.00401</v>
+        <v>0.00023</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4624,10 +4741,10 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>8.371838267395011</v>
+        <v>13.94457543448406</v>
       </c>
       <c r="C301">
-        <v>0.00419</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4635,10 +4752,10 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>8.002628668156159</v>
+        <v>13.93695478562051</v>
       </c>
       <c r="C302">
-        <v>0.0051</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4646,10 +4763,10 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>7.907187279046122</v>
+        <v>13.92222158019053</v>
       </c>
       <c r="C303">
-        <v>0.00536</v>
+        <v>0.00025</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4657,10 +4774,10 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>7.867678487216135</v>
+        <v>13.83049917635243</v>
       </c>
       <c r="C304">
-        <v>0.00548</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4668,10 +4785,10 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>7.738842134664885</v>
+        <v>13.82213111788021</v>
       </c>
       <c r="C305">
-        <v>0.00587</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4679,10 +4796,10 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>7.635403598511921</v>
+        <v>13.71426657840268</v>
       </c>
       <c r="C306">
-        <v>0.0062</v>
+        <v>0.00027</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4690,10 +4807,10 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>7.629126361953109</v>
+        <v>13.67317142029375</v>
       </c>
       <c r="C307">
-        <v>0.00622</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4701,10 +4818,10 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>7.572632460110775</v>
+        <v>13.64810765082399</v>
       </c>
       <c r="C308">
-        <v>0.00642</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4712,10 +4829,10 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>7.526454598708606</v>
+        <v>13.41783255901221</v>
       </c>
       <c r="C309">
-        <v>0.00658</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4723,10 +4840,10 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>7.448531068782658</v>
+        <v>13.36804021671168</v>
       </c>
       <c r="C310">
-        <v>0.00686</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4734,10 +4851,10 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>7.384964621340233</v>
+        <v>13.3675687949566</v>
       </c>
       <c r="C311">
-        <v>0.0071</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4745,10 +4862,10 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>7.009727376375968</v>
+        <v>13.32694892124432</v>
       </c>
       <c r="C312">
-        <v>0.00869</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4756,10 +4873,10 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>6.965629282559261</v>
+        <v>13.10725148683919</v>
       </c>
       <c r="C313">
-        <v>0.0089</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4767,10 +4884,439 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>6.880865087165016</v>
+        <v>13.08088271489644</v>
       </c>
       <c r="C314">
-        <v>0.00932</v>
+        <v>0.00038</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>13.06692476212055</v>
+      </c>
+      <c r="C315">
+        <v>0.00038</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>12.8686789483094</v>
+      </c>
+      <c r="C316">
+        <v>0.00042</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>12.10262761158813</v>
+      </c>
+      <c r="C317">
+        <v>0.00061</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>12.05843966912532</v>
+      </c>
+      <c r="C318">
+        <v>0.00063</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>11.88984922368842</v>
+      </c>
+      <c r="C319">
+        <v>0.00068</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>11.76326599325881</v>
+      </c>
+      <c r="C320">
+        <v>0.00073</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>11.51444810232913</v>
+      </c>
+      <c r="C321">
+        <v>0.00083</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>11.42954985260224</v>
+      </c>
+      <c r="C322">
+        <v>0.00086</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>11.42485008898614</v>
+      </c>
+      <c r="C323">
+        <v>0.00087</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>11.39810132645548</v>
+      </c>
+      <c r="C324">
+        <v>0.00088</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>11.24426332473707</v>
+      </c>
+      <c r="C325">
+        <v>0.00095</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>11.09733296432317</v>
+      </c>
+      <c r="C326">
+        <v>0.00102</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>11.00537662564176</v>
+      </c>
+      <c r="C327">
+        <v>0.00107</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>11.00197734011576</v>
+      </c>
+      <c r="C328">
+        <v>0.00108</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>10.87355354273892</v>
+      </c>
+      <c r="C329">
+        <v>0.00115</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>10.87043921133715</v>
+      </c>
+      <c r="C330">
+        <v>0.00115</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>10.7424598841886</v>
+      </c>
+      <c r="C331">
+        <v>0.00123</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>10.46329055073262</v>
+      </c>
+      <c r="C332">
+        <v>0.00142</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>10.44756652395181</v>
+      </c>
+      <c r="C333">
+        <v>0.00143</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>10.10309120909652</v>
+      </c>
+      <c r="C334">
+        <v>0.00171</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>9.885628396339696</v>
+      </c>
+      <c r="C335">
+        <v>0.00191</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>9.22742185824497</v>
+      </c>
+      <c r="C336">
+        <v>0.00269</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>9.129401372118975</v>
+      </c>
+      <c r="C337">
+        <v>0.00283</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>8.925542010949256</v>
+      </c>
+      <c r="C338">
+        <v>0.00315</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>8.873098478079026</v>
+      </c>
+      <c r="C339">
+        <v>0.00324</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>8.211395543503833</v>
+      </c>
+      <c r="C340">
+        <v>0.00459</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>8.145213940596108</v>
+      </c>
+      <c r="C341">
+        <v>0.00476</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>8.042759658555733</v>
+      </c>
+      <c r="C342">
+        <v>0.00502</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>7.853031207295719</v>
+      </c>
+      <c r="C343">
+        <v>0.00556</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>7.761516706827516</v>
+      </c>
+      <c r="C344">
+        <v>0.00584</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>7.71885938408269</v>
+      </c>
+      <c r="C345">
+        <v>0.00597</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>7.684448096329286</v>
+      </c>
+      <c r="C346">
+        <v>0.00608</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>7.682492353970713</v>
+      </c>
+      <c r="C347">
+        <v>0.00609</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>7.531598660144794</v>
+      </c>
+      <c r="C348">
+        <v>0.0066</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>7.519161262752562</v>
+      </c>
+      <c r="C349">
+        <v>0.00664</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>7.51667144036836</v>
+      </c>
+      <c r="C350">
+        <v>0.00665</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>7.008520507057953</v>
+      </c>
+      <c r="C351">
+        <v>0.00874</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>6.95363460694772</v>
+      </c>
+      <c r="C352">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>6.816800147755362</v>
+      </c>
+      <c r="C353">
+        <v>0.009690000000000001</v>
       </c>
     </row>
   </sheetData>
